--- a/ApplicationTestData/AppData.xlsx
+++ b/ApplicationTestData/AppData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="-45" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2865" windowWidth="10545" windowHeight="3150"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -27,7 +28,7 @@
     <t>learnseleniumetlhive@gmail.com</t>
   </si>
   <si>
-    <t>abcd@1234</t>
+    <t>abcd</t>
   </si>
 </sst>
 </file>
@@ -375,7 +376,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -403,7 +404,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId2" display="abcd@123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
